--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -421,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,87 +477,65 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.63</v>
-      </c>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="O2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="3">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="3">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F3" s="3">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G3" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="H3" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I3" s="3">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="J3" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="K3" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="L3" s="3">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="M3" s="3">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
       <c r="O3" t="s">
         <v>1</v>
@@ -565,821 +543,862 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="C4" s="3">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="E4" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="F4" s="3">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="G4" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="H4" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="I4" s="3">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J4" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="L4" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="M4" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="C5" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="D5" s="3">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E5" s="3">
         <v>0.37</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H5" s="3">
         <v>0.37</v>
       </c>
       <c r="I5" s="3">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="J5" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="K5" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="L5" s="3">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M5" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="3">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="C6" s="3">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="3">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="E6" s="3">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="F6" s="3">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="I6" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="J6" s="3">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="K6" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="L6" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="M6" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="3">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="C7" s="3">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="D7" s="3">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E7" s="3">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="3">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G7" s="3">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H7" s="3">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I7" s="3">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J7" s="3">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="K7" s="3">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="L7" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="M7" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="C8" s="3">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="D8" s="3">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="E8" s="3">
         <v>0.63</v>
       </c>
       <c r="F8" s="3">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="G8" s="3">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I8" s="3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="K8" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="L8" s="3">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M8" s="3">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B9" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.61</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="G9" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H9" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I9" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="J9" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="K9" s="3">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="L9" s="3">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="M9" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B10" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C10" s="3">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="D10" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E10" s="3">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="F10" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G10" s="3">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H10" s="3">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I10" s="3">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="J10" s="3">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K10" s="3">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="L10" s="3">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="M10" s="3">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.58679999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.54700000000000004</v>
+        <v>2013</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.43</v>
       </c>
       <c r="H11" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.48</v>
       </c>
-      <c r="I11" s="3">
-        <v>0.5</v>
-      </c>
       <c r="J11" s="3">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="K11" s="3">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="L11" s="3">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="M11" s="3">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="2">
-        <v>0.64129999999999998</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="C12" s="2">
-        <v>0.57189999999999996</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.55269999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="2">
-        <v>0.62180000000000002</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="F12" s="2">
-        <v>0.53710000000000002</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="G12" s="2">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.6008</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.56479999999999997</v>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="2">
-        <v>0.55359999999999998</v>
+        <v>0.64129999999999998</v>
       </c>
       <c r="C13" s="2">
-        <v>0.5</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="D13" s="2">
-        <v>0.5</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="E13" s="2">
-        <v>0.5796</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>0.5</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="G13" s="2">
-        <v>0.55130000000000001</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="H13" s="2">
-        <v>0.55920000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>0.61570000000000003</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="J13" s="2">
-        <v>0.59140000000000004</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>0.5706</v>
+        <v>0.6008</v>
       </c>
       <c r="L13" s="2">
-        <v>0.5474</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="M13" s="2">
-        <v>0.53380000000000005</v>
+        <v>0.56479999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B14" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>0.68489999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="2">
-        <v>0.54530000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.64449999999999996</v>
+        <v>0.5796</v>
       </c>
       <c r="F14" s="2">
-        <v>0.54559999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="2">
-        <v>0.54510000000000003</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>0.56589999999999996</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="I14" s="2">
-        <v>0.60560000000000003</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="J14" s="2">
-        <v>0.51980000000000004</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="K14" s="2">
-        <v>0.5</v>
+        <v>0.5706</v>
       </c>
       <c r="L14" s="2">
-        <v>0.5</v>
+        <v>0.5474</v>
       </c>
       <c r="M14" s="2">
-        <v>0.5</v>
+        <v>0.53380000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B15" s="2">
-        <v>0.56430000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="C15" s="2">
-        <v>0.60150000000000003</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="D15" s="2">
-        <v>0.52439999999999998</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>0.54110000000000003</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="F15" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="G15" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.54510000000000003</v>
       </c>
       <c r="H15" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="I15" s="2">
-        <v>0.69240000000000002</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="J15" s="2">
-        <v>0.65820000000000001</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="K15" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="2">
-        <v>0.75190000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M15" s="2">
-        <v>0.66259999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="C16" s="2">
-        <v>0.72</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="D16" s="2">
-        <v>0.57250000000000001</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>0.6885</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="F16" s="2">
-        <v>0.62780000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="G16" s="2">
-        <v>0.66969999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H16" s="2">
-        <v>0.59589999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="I16" s="2">
-        <v>0.64759999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="J16" s="2">
-        <v>0.64729999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>0.53539999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="L16" s="2">
-        <v>0.61480000000000001</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>0.55930000000000002</v>
+        <v>0.66259999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B17" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C17" s="2">
-        <v>0.73380000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D17" s="2">
-        <v>0.57289999999999996</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>0.70830000000000004</v>
+        <v>0.6885</v>
       </c>
       <c r="F17" s="2">
-        <v>0.58589999999999998</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="G17" s="2">
-        <v>0.68969999999999998</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="H17" s="2">
-        <v>0.69469999999999998</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I17" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="J17" s="2">
-        <v>0.74480000000000002</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>0.65290000000000004</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="L17" s="2">
-        <v>0.68840000000000001</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="M17" s="2">
-        <v>0.62880000000000003</v>
+        <v>0.55930000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>0.68889999999999996</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.59670000000000001</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="E18" s="2">
-        <v>0.76480000000000004</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>0.70130000000000003</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="G18" s="2">
-        <v>0.754</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="H18" s="2">
-        <v>0.80079999999999996</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="I18" s="2">
-        <v>0.75880000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="J18" s="2">
-        <v>0.84830000000000005</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="K18" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="L18" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>0.69389999999999996</v>
+        <v>0.62880000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19" s="2">
-        <v>0.69079999999999997</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="C19" s="2">
-        <v>0.62860000000000005</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="D19" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>0.67869999999999997</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="F19" s="2">
-        <v>0.58779999999999999</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="G19" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.754</v>
       </c>
       <c r="H19" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="I19" s="2">
-        <v>0.69620000000000004</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="J19" s="2">
-        <v>0.70150000000000001</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="K19" s="2">
-        <v>0.67369999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>0.61140000000000005</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="M19" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.69389999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B20" s="2">
-        <v>0.86270000000000002</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>0.99019999999999997</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="D20" s="2">
-        <v>0.91369999999999996</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E20" s="2">
-        <v>0.88009999999999999</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="F20" s="2">
-        <v>0.92049999999999998</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>0.96730000000000005</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="H20" s="2">
-        <v>0.91869999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I20" s="2">
-        <v>1.0491999999999999</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="J20" s="2">
-        <v>0.90580000000000005</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>0.83809999999999996</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="L20" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="M20" s="2">
-        <v>0.67849999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B21" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>0.76039999999999996</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="D21" s="2">
-        <v>0.61770000000000003</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="E21" s="2">
-        <v>0.67669999999999997</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>0.7369</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="G21" s="2">
-        <v>0.71130000000000004</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="H21" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="I21" s="2">
-        <v>0.76690000000000003</v>
+        <v>1.0491999999999999</v>
       </c>
       <c r="J21" s="2">
-        <v>0.74929999999999997</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="K21" s="2">
-        <v>0.69650000000000001</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="L21" s="2">
-        <v>0.7782</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="M21" s="2">
-        <v>0.76570000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="2">
-        <v>0.59960000000000002</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="C22" s="2">
-        <v>0.63759999999999994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="D22" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="E22" s="2">
-        <v>0.67330000000000001</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="F22" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.7369</v>
       </c>
       <c r="G22" s="2">
-        <v>0.68359999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H22" s="2">
-        <v>0.64649999999999996</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="I22" s="2">
-        <v>0.74529999999999996</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="J22" s="2">
-        <v>0.84530000000000005</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="K22" s="2">
-        <v>0.66349999999999998</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>0.79279999999999995</v>
+        <v>0.7782</v>
       </c>
       <c r="M22" s="2">
-        <v>0.69379999999999997</v>
+        <v>0.76570000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="2">
         <v>0.80130000000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="2">
         <v>0.72529999999999994</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="2">
         <v>0.63080000000000003</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="2">
         <v>0.75039999999999996</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <v>0.71509999999999996</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I24" s="2">
         <v>0.65549999999999997</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>0.70350000000000001</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="2">
         <v>0.60429999999999995</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L24" s="2">
         <v>0.63229999999999997</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M24" s="2">
         <v>0.62029999999999996</v>
       </c>
     </row>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -482,7 +482,9 @@
       <c r="B2" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -485,7 +485,9 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>0.61</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -488,7 +488,9 @@
       <c r="D2" s="3">
         <v>0.61</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>0.66</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -491,7 +491,9 @@
       <c r="E2" s="3">
         <v>0.66</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>0.61</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -494,8 +494,12 @@
       <c r="F2" s="3">
         <v>0.61</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.71</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -500,7 +500,9 @@
       <c r="H2" s="3">
         <v>0.71</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>0.73719999999999997</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Fonte</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>http://www.acinh.com.br/servicos/indicadores-economicos/poupanca-mensal</t>
+  </si>
+  <si>
+    <t>http://www.yahii.com.br/poupanca.html</t>
   </si>
 </sst>
 </file>
@@ -503,12 +506,16 @@
       <c r="I2" s="3">
         <v>0.73719999999999997</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.65010000000000001</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -552,7 +559,7 @@
         <v>0.63</v>
       </c>
       <c r="O3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -594,6 +601,9 @@
       </c>
       <c r="M4" s="3">
         <v>0.12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -512,7 +512,9 @@
       <c r="K2" s="3">
         <v>0.65010000000000001</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>0.65149999999999997</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="O2" t="s">
         <v>16</v>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -424,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,951 +480,977 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="D2" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.68140000000000001</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.65010000000000001</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.65149999999999997</v>
-      </c>
+        <v>0.74039999999999995</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B3" s="3">
-        <v>0.12</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C3" s="3">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="3">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="3">
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="F3" s="3">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
       <c r="G3" s="3">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="H3" s="3">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="I3" s="3">
-        <v>0.3</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="J3" s="3">
-        <v>0.36</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="K3" s="3">
-        <v>0.36</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="L3" s="3">
-        <v>0.44</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="M3" s="3">
-        <v>0.63</v>
+        <v>0.70820000000000005</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="C4" s="3">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="D4" s="3">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F4" s="3">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="H4" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I4" s="3">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="K4" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="L4" s="3">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="M4" s="3">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="C5" s="3">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="E5" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="F5" s="3">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="G5" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="H5" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="I5" s="3">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J5" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="K5" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="L5" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="M5" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="C6" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="D6" s="3">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E6" s="3">
         <v>0.37</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H6" s="3">
         <v>0.37</v>
       </c>
       <c r="I6" s="3">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="J6" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="K6" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="L6" s="3">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M6" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="3">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="3">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="F7" s="3">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="I7" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="J7" s="3">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="K7" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="L7" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="M7" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="3">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="C8" s="3">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="D8" s="3">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E8" s="3">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H8" s="3">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I8" s="3">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J8" s="3">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="K8" s="3">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="L8" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="M8" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="C9" s="3">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="D9" s="3">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="E9" s="3">
         <v>0.63</v>
       </c>
       <c r="F9" s="3">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="G9" s="3">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I9" s="3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="J9" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="K9" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="L9" s="3">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M9" s="3">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C10" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.61</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="G10" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H10" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I10" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="J10" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="K10" s="3">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="L10" s="3">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="M10" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C11" s="3">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="D11" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="F11" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G11" s="3">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H11" s="3">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I11" s="3">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="J11" s="3">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K11" s="3">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="L11" s="3">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="M11" s="3">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.58679999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.54700000000000004</v>
+        <v>2013</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.43</v>
       </c>
       <c r="H12" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.48</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.5</v>
-      </c>
       <c r="J12" s="3">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="K12" s="3">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="L12" s="3">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="M12" s="3">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>0.64129999999999998</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="C13" s="2">
-        <v>0.57189999999999996</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.55269999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="2">
-        <v>0.62180000000000002</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="F13" s="2">
-        <v>0.53710000000000002</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="G13" s="2">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.6008</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.56479999999999997</v>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="2">
-        <v>0.55359999999999998</v>
+        <v>0.64129999999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>0.5</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="D14" s="2">
-        <v>0.5</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="E14" s="2">
-        <v>0.5796</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>0.5</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>0.55130000000000001</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="H14" s="2">
-        <v>0.55920000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I14" s="2">
-        <v>0.61570000000000003</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="J14" s="2">
-        <v>0.59140000000000004</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>0.5706</v>
+        <v>0.6008</v>
       </c>
       <c r="L14" s="2">
-        <v>0.5474</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="M14" s="2">
-        <v>0.53380000000000005</v>
+        <v>0.56479999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B15" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>0.68489999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="2">
-        <v>0.54530000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="2">
-        <v>0.64449999999999996</v>
+        <v>0.5796</v>
       </c>
       <c r="F15" s="2">
-        <v>0.54559999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G15" s="2">
-        <v>0.54510000000000003</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="H15" s="2">
-        <v>0.56589999999999996</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="I15" s="2">
-        <v>0.60560000000000003</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="J15" s="2">
-        <v>0.51980000000000004</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="K15" s="2">
-        <v>0.5</v>
+        <v>0.5706</v>
       </c>
       <c r="L15" s="2">
-        <v>0.5</v>
+        <v>0.5474</v>
       </c>
       <c r="M15" s="2">
-        <v>0.5</v>
+        <v>0.53380000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B16" s="2">
-        <v>0.56430000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="C16" s="2">
-        <v>0.60150000000000003</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="D16" s="2">
-        <v>0.52439999999999998</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="E16" s="2">
-        <v>0.54110000000000003</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="G16" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.54510000000000003</v>
       </c>
       <c r="H16" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="I16" s="2">
-        <v>0.69240000000000002</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="J16" s="2">
-        <v>0.65820000000000001</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="K16" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="2">
-        <v>0.75190000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M16" s="2">
-        <v>0.66259999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B17" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="C17" s="2">
-        <v>0.72</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>0.57250000000000001</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="E17" s="2">
-        <v>0.6885</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="F17" s="2">
-        <v>0.62780000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="G17" s="2">
-        <v>0.66969999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H17" s="2">
-        <v>0.59589999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="I17" s="2">
-        <v>0.64759999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="J17" s="2">
-        <v>0.64729999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>0.53539999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="L17" s="2">
-        <v>0.61480000000000001</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="M17" s="2">
-        <v>0.55930000000000002</v>
+        <v>0.66259999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B18" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>0.73380000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D18" s="2">
-        <v>0.57289999999999996</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>0.70830000000000004</v>
+        <v>0.6885</v>
       </c>
       <c r="F18" s="2">
-        <v>0.58589999999999998</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="G18" s="2">
-        <v>0.68969999999999998</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="H18" s="2">
-        <v>0.69469999999999998</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I18" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="J18" s="2">
-        <v>0.74480000000000002</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>0.65290000000000004</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>0.68840000000000001</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>0.62880000000000003</v>
+        <v>0.55930000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B19" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C19" s="2">
-        <v>0.68889999999999996</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="D19" s="2">
-        <v>0.59670000000000001</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="E19" s="2">
-        <v>0.76480000000000004</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="F19" s="2">
-        <v>0.70130000000000003</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="G19" s="2">
-        <v>0.754</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="H19" s="2">
-        <v>0.80079999999999996</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="I19" s="2">
-        <v>0.75880000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="J19" s="2">
-        <v>0.84830000000000005</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="K19" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="L19" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>0.69389999999999996</v>
+        <v>0.62880000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B20" s="2">
-        <v>0.69079999999999997</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="C20" s="2">
-        <v>0.62860000000000005</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="D20" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>0.67869999999999997</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="F20" s="2">
-        <v>0.58779999999999999</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="G20" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.754</v>
       </c>
       <c r="H20" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="I20" s="2">
-        <v>0.69620000000000004</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="J20" s="2">
-        <v>0.70150000000000001</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="K20" s="2">
-        <v>0.67369999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="L20" s="2">
-        <v>0.61140000000000005</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="M20" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.69389999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B21" s="2">
-        <v>0.86270000000000002</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="C21" s="2">
-        <v>0.99019999999999997</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="D21" s="2">
-        <v>0.91369999999999996</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E21" s="2">
-        <v>0.88009999999999999</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="F21" s="2">
-        <v>0.92049999999999998</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="G21" s="2">
-        <v>0.96730000000000005</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="H21" s="2">
-        <v>0.91869999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I21" s="2">
-        <v>1.0491999999999999</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="J21" s="2">
-        <v>0.90580000000000005</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="K21" s="2">
-        <v>0.83809999999999996</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="L21" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="M21" s="2">
-        <v>0.67849999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B22" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="C22" s="2">
-        <v>0.76039999999999996</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="D22" s="2">
-        <v>0.61770000000000003</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="E22" s="2">
-        <v>0.67669999999999997</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>0.7369</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="G22" s="2">
-        <v>0.71130000000000004</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="H22" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="I22" s="2">
-        <v>0.76690000000000003</v>
+        <v>1.0491999999999999</v>
       </c>
       <c r="J22" s="2">
-        <v>0.74929999999999997</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="K22" s="2">
-        <v>0.69650000000000001</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="L22" s="2">
-        <v>0.7782</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="M22" s="2">
-        <v>0.76570000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" s="2">
-        <v>0.59960000000000002</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="C23" s="2">
-        <v>0.63759999999999994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="D23" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="E23" s="2">
-        <v>0.67330000000000001</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="F23" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.7369</v>
       </c>
       <c r="G23" s="2">
-        <v>0.68359999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H23" s="2">
-        <v>0.64649999999999996</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="I23" s="2">
-        <v>0.74529999999999996</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="J23" s="2">
-        <v>0.84530000000000005</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="K23" s="2">
-        <v>0.66349999999999998</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="L23" s="2">
-        <v>0.79279999999999995</v>
+        <v>0.7782</v>
       </c>
       <c r="M23" s="2">
-        <v>0.69379999999999997</v>
+        <v>0.76570000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2000</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>0.80130000000000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>0.72529999999999994</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>0.63080000000000003</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>0.75039999999999996</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>0.71509999999999996</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I25" s="2">
         <v>0.65549999999999997</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J25" s="2">
         <v>0.70350000000000001</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="2">
         <v>0.60429999999999995</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L25" s="2">
         <v>0.63229999999999997</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M25" s="2">
         <v>0.62029999999999996</v>
       </c>
     </row>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -491,9 +491,15 @@
       <c r="D2" s="3">
         <v>0.74039999999999995</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.68079999999999996</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -500,13 +500,25 @@
       <c r="G2" s="3">
         <v>0.68079999999999996</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="H2" s="3">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.71709999999999996</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.57789999999999997</v>
+      </c>
       <c r="M2" s="3"/>
-      <c r="O2" s="1"/>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -549,7 +561,7 @@
         <v>0.70820000000000005</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -593,7 +605,7 @@
         <v>0.63</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -635,9 +647,6 @@
       </c>
       <c r="M5" s="3">
         <v>0.12</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">

--- a/indexer_lib/data/Poupanca.xlsx
+++ b/indexer_lib/data/Poupanca.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBADE93-AD1C-439E-BD90-98744B671AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="2" r:id="rId1"/>
@@ -14,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Fonte</t>
-  </si>
-  <si>
-    <t>https://www.portalbrasil.net/poupanca_mensal/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ano</t>
   </si>
@@ -60,17 +55,11 @@
   <si>
     <t>Dezembro</t>
   </si>
-  <si>
-    <t>http://www.acinh.com.br/servicos/indicadores-economicos/poupanca-mensal</t>
-  </si>
-  <si>
-    <t>http://www.yahii.com.br/poupanca.html</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -140,7 +129,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +167,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -213,6 +202,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,9 +254,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,8 +446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,1036 +459,1056 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="3">
-        <v>0.70909999999999995</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="C2" s="3">
-        <v>0.58340000000000003</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="D2" s="3">
-        <v>0.74039999999999995</v>
+        <v>0.5333</v>
       </c>
       <c r="E2" s="3">
-        <v>0.58250000000000002</v>
+        <v>0.5464</v>
       </c>
       <c r="F2" s="3">
-        <v>0.71579999999999999</v>
+        <v>0.58040000000000003</v>
       </c>
       <c r="G2" s="3">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.65890000000000004</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.71709999999999996</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.61360000000000003</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.60609999999999997</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.57789999999999997</v>
-      </c>
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.70909999999999995</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5</v>
+        <v>0.58340000000000003</v>
       </c>
       <c r="D3" s="3">
-        <v>0.61</v>
+        <v>0.74039999999999995</v>
       </c>
       <c r="E3" s="3">
-        <v>0.66</v>
+        <v>0.58250000000000002</v>
       </c>
       <c r="F3" s="3">
-        <v>0.61</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="G3" s="3">
-        <v>0.7</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="H3" s="3">
-        <v>0.71</v>
+        <v>0.65890000000000004</v>
       </c>
       <c r="I3" s="3">
-        <v>0.73719999999999997</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="J3" s="3">
-        <v>0.68140000000000001</v>
+        <v>0.61360000000000003</v>
       </c>
       <c r="K3" s="3">
-        <v>0.65010000000000001</v>
+        <v>0.60609999999999997</v>
       </c>
       <c r="L3" s="3">
-        <v>0.65149999999999997</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="M3" s="3">
-        <v>0.70820000000000005</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
+        <v>0.56930000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="3">
-        <v>0.12</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C4" s="3">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="3">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="E4" s="3">
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
       <c r="G4" s="3">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="H4" s="3">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="I4" s="3">
-        <v>0.3</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="J4" s="3">
-        <v>0.36</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="K4" s="3">
-        <v>0.36</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="L4" s="3">
-        <v>0.44</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="M4" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
+        <v>0.70820000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="3">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="3">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="3">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G5" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="H5" s="3">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="I5" s="3">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="J5" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="K5" s="3">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="L5" s="3">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="M5" s="3">
-        <v>0.12</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="C6" s="3">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="E6" s="3">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
       <c r="F6" s="3">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="G6" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="H6" s="3">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="I6" s="3">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="J6" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="K6" s="3">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="L6" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="M6" s="3">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="C7" s="3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="D7" s="3">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="E7" s="3">
         <v>0.37</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H7" s="3">
         <v>0.37</v>
       </c>
       <c r="I7" s="3">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="J7" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="K7" s="3">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="L7" s="3">
-        <v>0.37</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M7" s="3">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="3">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="C8" s="3">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="D8" s="3">
-        <v>0.65</v>
+        <v>0.39</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="F8" s="3">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="I8" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="J8" s="3">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="K8" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="L8" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="M8" s="3">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B9" s="3">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="C9" s="3">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="D9" s="3">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="E9" s="3">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="3">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G9" s="3">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H9" s="3">
-        <v>0.66</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I9" s="3">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J9" s="3">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="K9" s="3">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="L9" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="M9" s="3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B10" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="C10" s="3">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="D10" s="3">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="E10" s="3">
         <v>0.63</v>
       </c>
       <c r="F10" s="3">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="G10" s="3">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="H10" s="3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I10" s="3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="J10" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="K10" s="3">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="L10" s="3">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="M10" s="3">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B11" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="C11" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.61</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="G11" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.62</v>
       </c>
       <c r="H11" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.68</v>
       </c>
       <c r="I11" s="3">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="J11" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="K11" s="3">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="L11" s="3">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="M11" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B12" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C12" s="3">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="D12" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="3">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="F12" s="3">
-        <v>0.41</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>0.43</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H12" s="3">
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I12" s="3">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="J12" s="3">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K12" s="3">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="L12" s="3">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="M12" s="3">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.59419999999999995</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.58679999999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.52280000000000004</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.54700000000000004</v>
+        <v>2013</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.43</v>
       </c>
       <c r="H13" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.48</v>
       </c>
-      <c r="I13" s="3">
-        <v>0.5</v>
-      </c>
       <c r="J13" s="3">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="K13" s="3">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="L13" s="3">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="M13" s="3">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="2">
-        <v>0.64129999999999998</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="C14" s="2">
-        <v>0.57189999999999996</v>
+        <v>0.58679999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.55269999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.62180000000000002</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="F14" s="2">
-        <v>0.53710000000000002</v>
+        <v>0.52280000000000004</v>
       </c>
       <c r="G14" s="2">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.62350000000000005</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.6008</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.56479999999999997</v>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.41</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="2">
-        <v>0.55359999999999998</v>
+        <v>0.64129999999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>0.5</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="D15" s="2">
-        <v>0.5</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>0.5796</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="F15" s="2">
-        <v>0.5</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="G15" s="2">
-        <v>0.55130000000000001</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="H15" s="2">
-        <v>0.55920000000000003</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>0.61570000000000003</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="J15" s="2">
-        <v>0.59140000000000004</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>0.5706</v>
+        <v>0.6008</v>
       </c>
       <c r="L15" s="2">
-        <v>0.5474</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="M15" s="2">
-        <v>0.53380000000000005</v>
+        <v>0.56479999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B16" s="2">
-        <v>0.71599999999999997</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="C16" s="2">
-        <v>0.68489999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="2">
-        <v>0.54530000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="2">
-        <v>0.64449999999999996</v>
+        <v>0.5796</v>
       </c>
       <c r="F16" s="2">
-        <v>0.54559999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="2">
-        <v>0.54510000000000003</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="H16" s="2">
-        <v>0.56589999999999996</v>
+        <v>0.55920000000000003</v>
       </c>
       <c r="I16" s="2">
-        <v>0.60560000000000003</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="J16" s="2">
-        <v>0.51980000000000004</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="K16" s="2">
-        <v>0.5</v>
+        <v>0.5706</v>
       </c>
       <c r="L16" s="2">
-        <v>0.5</v>
+        <v>0.5474</v>
       </c>
       <c r="M16" s="2">
-        <v>0.5</v>
+        <v>0.53380000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B17" s="2">
-        <v>0.56430000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>0.60150000000000003</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="D17" s="2">
-        <v>0.52439999999999998</v>
+        <v>0.54530000000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>0.54110000000000003</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="F17" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="G17" s="2">
-        <v>0.57399999999999995</v>
+        <v>0.54510000000000003</v>
       </c>
       <c r="H17" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.56589999999999996</v>
       </c>
       <c r="I17" s="2">
-        <v>0.69240000000000002</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="J17" s="2">
-        <v>0.65820000000000001</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="K17" s="2">
-        <v>0.69799999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="2">
-        <v>0.75190000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M17" s="2">
-        <v>0.66259999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>0.72</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="D18" s="2">
-        <v>0.57250000000000001</v>
+        <v>0.52439999999999998</v>
       </c>
       <c r="E18" s="2">
-        <v>0.6885</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="F18" s="2">
-        <v>0.62780000000000002</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="G18" s="2">
-        <v>0.66969999999999996</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H18" s="2">
-        <v>0.59589999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
       <c r="I18" s="2">
-        <v>0.64759999999999995</v>
+        <v>0.69240000000000002</v>
       </c>
       <c r="J18" s="2">
-        <v>0.64729999999999999</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="K18" s="2">
-        <v>0.53539999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="L18" s="2">
-        <v>0.61480000000000001</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="M18" s="2">
-        <v>0.55930000000000002</v>
+        <v>0.66259999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="C19" s="2">
-        <v>0.73380000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D19" s="2">
-        <v>0.57289999999999996</v>
+        <v>0.57250000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>0.70830000000000004</v>
+        <v>0.6885</v>
       </c>
       <c r="F19" s="2">
-        <v>0.58589999999999998</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="G19" s="2">
-        <v>0.68969999999999998</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="H19" s="2">
-        <v>0.69469999999999998</v>
+        <v>0.59589999999999999</v>
       </c>
       <c r="I19" s="2">
-        <v>0.67600000000000005</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="J19" s="2">
-        <v>0.74480000000000002</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>0.65290000000000004</v>
+        <v>0.53539999999999999</v>
       </c>
       <c r="L19" s="2">
-        <v>0.68840000000000001</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>0.62880000000000003</v>
+        <v>0.55930000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20" s="2">
-        <v>0.74119999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C20" s="2">
-        <v>0.68889999999999996</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>0.59670000000000001</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="E20" s="2">
-        <v>0.76480000000000004</v>
+        <v>0.70830000000000004</v>
       </c>
       <c r="F20" s="2">
-        <v>0.70130000000000003</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="G20" s="2">
-        <v>0.754</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="H20" s="2">
-        <v>0.80079999999999996</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="I20" s="2">
-        <v>0.75880000000000003</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="J20" s="2">
-        <v>0.84830000000000005</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="K20" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.65290000000000004</v>
       </c>
       <c r="L20" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.68840000000000001</v>
       </c>
       <c r="M20" s="2">
-        <v>0.69389999999999996</v>
+        <v>0.62880000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B21" s="2">
-        <v>0.69079999999999997</v>
+        <v>0.74119999999999997</v>
       </c>
       <c r="C21" s="2">
-        <v>0.62860000000000005</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="D21" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0.67869999999999997</v>
+        <v>0.76480000000000004</v>
       </c>
       <c r="F21" s="2">
-        <v>0.58779999999999999</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="G21" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.754</v>
       </c>
       <c r="H21" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="I21" s="2">
-        <v>0.69620000000000004</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="J21" s="2">
-        <v>0.70150000000000001</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="K21" s="2">
-        <v>0.67369999999999997</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="L21" s="2">
-        <v>0.61140000000000005</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="M21" s="2">
-        <v>0.61519999999999997</v>
+        <v>0.69389999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B22" s="2">
-        <v>0.86270000000000002</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="C22" s="2">
-        <v>0.99019999999999997</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="D22" s="2">
-        <v>0.91369999999999996</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E22" s="2">
-        <v>0.88009999999999999</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="F22" s="2">
-        <v>0.92049999999999998</v>
+        <v>0.58779999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>0.96730000000000005</v>
+        <v>0.65539999999999998</v>
       </c>
       <c r="H22" s="2">
-        <v>0.91869999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="I22" s="2">
-        <v>1.0491999999999999</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="J22" s="2">
-        <v>0.90580000000000005</v>
+        <v>0.70150000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>0.83809999999999996</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="L22" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="M22" s="2">
-        <v>0.67849999999999999</v>
+        <v>0.61519999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="2">
-        <v>0.69930000000000003</v>
+        <v>0.86270000000000002</v>
       </c>
       <c r="C23" s="2">
-        <v>0.76039999999999996</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="D23" s="2">
-        <v>0.61770000000000003</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="E23" s="2">
-        <v>0.67669999999999997</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>0.7369</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="G23" s="2">
-        <v>0.71130000000000004</v>
+        <v>0.96730000000000005</v>
       </c>
       <c r="H23" s="2">
-        <v>0.65900000000000003</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="I23" s="2">
-        <v>0.76690000000000003</v>
+        <v>1.0491999999999999</v>
       </c>
       <c r="J23" s="2">
-        <v>0.74929999999999997</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="K23" s="2">
-        <v>0.69650000000000001</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="L23" s="2">
-        <v>0.7782</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="M23" s="2">
-        <v>0.76570000000000005</v>
+        <v>0.67849999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="2">
-        <v>0.59960000000000002</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="C24" s="2">
-        <v>0.63759999999999994</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="D24" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="E24" s="2">
-        <v>0.67330000000000001</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="F24" s="2">
-        <v>0.65539999999999998</v>
+        <v>0.7369</v>
       </c>
       <c r="G24" s="2">
-        <v>0.68359999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="H24" s="2">
-        <v>0.64649999999999996</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="I24" s="2">
-        <v>0.74529999999999996</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="J24" s="2">
-        <v>0.84530000000000005</v>
+        <v>0.74929999999999997</v>
       </c>
       <c r="K24" s="2">
-        <v>0.66349999999999998</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="L24" s="2">
-        <v>0.79279999999999995</v>
+        <v>0.7782</v>
       </c>
       <c r="M24" s="2">
-        <v>0.69379999999999997</v>
+        <v>0.76570000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B26" s="2">
         <v>0.80130000000000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>0.73399999999999999</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="2">
         <v>0.72529999999999994</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="2">
         <v>0.63080000000000003</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>0.75039999999999996</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="2">
         <v>0.71509999999999996</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I26" s="2">
         <v>0.65549999999999997</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J26" s="2">
         <v>0.70350000000000001</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="2">
         <v>0.60429999999999995</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L26" s="2">
         <v>0.63229999999999997</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M26" s="2">
         <v>0.62029999999999996</v>
       </c>
     </row>
